--- a/biology/Médecine/Organe_circumventriculaire/Organe_circumventriculaire.xlsx
+++ b/biology/Médecine/Organe_circumventriculaire/Organe_circumventriculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les organes circumventriculaires sont des structures polymorphes, neuroendocriniennes, situées dans la paroi des ventricules encéphaliques[1]. Au nombre de six, ils possèdent une barrière hémato-encéphalique extrêmement perméable : cela permet des échanges importants avec le compartiment vasculaire. On retrouve donc :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les organes circumventriculaires sont des structures polymorphes, neuroendocriniennes, situées dans la paroi des ventricules encéphaliques. Au nombre de six, ils possèdent une barrière hémato-encéphalique extrêmement perméable : cela permet des échanges importants avec le compartiment vasculaire. On retrouve donc :
 l'organe subfornical (en),
 l'organe vasculaire de la lame terminale,
 la neurohypophyse, constituant la partie postérieure de l'hypophyse ou glande pituitaire,
@@ -520,18 +532,198 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Organe subfornical
-L'organe subfornical est situé dans le toit du troisième ventricule, sous le fornix, entre les deux foramens interventriculaires. Il contrôlerait l'hémostase hydrodynamique, ainsi que la sécrétion d'hormones telles que la somatostatine et la gonadolibérine[1]. 
-Organe vasculaire de la lame tectale
-Comme son nom l'indique, cet organe se trouve accolé à la lame tectale du troisième ventricule. Il semble participer aux échanges hémo-encéphaliques de la somatostatine et de la gonadolibérine[1].
-Neurohypophyse
-Voir article connexe : neurohypophyse.
-Glande pinéale
-Voir article connexe : glande pinéale.
-Organe subcommissural
-L'organe subcommissural est situé à la paroi postérieure du troisième ventricule, au dessus de l'aqueduc du mésencéphale. Inconstant dans l'espèce humaine, sa fonction reste encore inconnue[1].
-Area postrema
-Cet organe est pair et situé à la base du quatrième ventricule, où la densité capillaire y est particulièrement importante. L'area postrema est impliquée dans des fonctions chémoréceptrices, neurosécrétoires et autonomes (comme par exemple le vomissement)[1].
+          <t>Organe subfornical</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'organe subfornical est situé dans le toit du troisième ventricule, sous le fornix, entre les deux foramens interventriculaires. Il contrôlerait l'hémostase hydrodynamique, ainsi que la sécrétion d'hormones telles que la somatostatine et la gonadolibérine. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Organe_circumventriculaire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Organe_circumventriculaire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Spécificité des différents organes circumventriculaires</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Organe vasculaire de la lame tectale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme son nom l'indique, cet organe se trouve accolé à la lame tectale du troisième ventricule. Il semble participer aux échanges hémo-encéphaliques de la somatostatine et de la gonadolibérine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Organe_circumventriculaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Organe_circumventriculaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Spécificité des différents organes circumventriculaires</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Neurohypophyse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voir article connexe : neurohypophyse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Organe_circumventriculaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Organe_circumventriculaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Spécificité des différents organes circumventriculaires</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Glande pinéale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voir article connexe : glande pinéale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Organe_circumventriculaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Organe_circumventriculaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Spécificité des différents organes circumventriculaires</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Organe subcommissural</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'organe subcommissural est situé à la paroi postérieure du troisième ventricule, au dessus de l'aqueduc du mésencéphale. Inconstant dans l'espèce humaine, sa fonction reste encore inconnue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Organe_circumventriculaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Organe_circumventriculaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Spécificité des différents organes circumventriculaires</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Area postrema</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet organe est pair et situé à la base du quatrième ventricule, où la densité capillaire y est particulièrement importante. L'area postrema est impliquée dans des fonctions chémoréceptrices, neurosécrétoires et autonomes (comme par exemple le vomissement).
 </t>
         </is>
       </c>
